--- a/contents.xlsx
+++ b/contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinlan/Desktop/college/classes/S22/ArtificialIntelligence/AIFinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinlan/Desktop/college/classes/S22/ArtificialIntelligence/AIFinalProject/FinalProjectAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7016BBC-8BB7-134E-B65E-F15D3EE08BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D2A824-ED14-094B-9FF7-43F8FF5FE886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E64888D4-031C-384F-B392-4D647EFA4475}"/>
+    <workbookView xWindow="11200" yWindow="5400" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E64888D4-031C-384F-B392-4D647EFA4475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -838,14 +838,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B02844-55F3-9444-B35E-1195B308F5CD}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="201" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinlan/Desktop/college/classes/S22/ArtificialIntelligence/AIFinalProject/FinalProjectAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D2A824-ED14-094B-9FF7-43F8FF5FE886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F819E8-45EB-2345-857E-57327B8CCAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11200" yWindow="5400" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E64888D4-031C-384F-B392-4D647EFA4475}"/>
   </bookViews>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinlan/Desktop/college/classes/S22/ArtificialIntelligence/AIFinalProject/FinalProjectAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F819E8-45EB-2345-857E-57327B8CCAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52D381-3E48-874F-B5C7-ECD637903A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="5400" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E64888D4-031C-384F-B392-4D647EFA4475}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E64888D4-031C-384F-B392-4D647EFA4475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B02844-55F3-9444-B35E-1195B308F5CD}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1067,11 +1067,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD2AF1-BD11-DE43-9C60-E85BBB89A8F8}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
